--- a/herbarium label_PE/herbarium_specimens_label_data.xlsx
+++ b/herbarium label_PE/herbarium_specimens_label_data.xlsx
@@ -74,42 +74,6 @@
             <name val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">Degrees must be between 0 and 90</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
         </r>
       </text>
     </comment>
@@ -1495,7 +1459,7 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>70</v>
       </c>
       <c r="H8" t="s">
@@ -2565,7 +2529,7 @@
       <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>93</v>
       </c>
       <c r="H19" t="s">
@@ -2642,7 +2606,7 @@
       <c r="AI19" t="s">
         <v>41</v>
       </c>
-      <c r="AJ19" s="1" t="s">
+      <c r="AJ19" t="s">
         <v>99</v>
       </c>
       <c r="AK19"/>
